--- a/打包/RND_stats_2022-10-09_to_2022-12-11_exp_2022-12-30_比較.xlsx
+++ b/打包/RND_stats_2022-10-09_to_2022-12-11_exp_2022-12-30_比較.xlsx
@@ -8,17 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\RND_Thesis\打包\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{ED5A2420-3094-4DD7-9B28-4E59FC8BBD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B4918D-8D5A-4B48-A650-9A93FAB17744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{04DEF979-66DD-4F65-8E62-DA634D72DD48}"/>
   </bookViews>
   <sheets>
     <sheet name="RND_stats_2022-10-09_to_2022-12" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -6636,868 +6646,95 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>863751</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>7470</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="圖片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{906D9FB7-900A-4AD2-9215-87BDCD65DCAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="724647" y="14515353"/>
+          <a:ext cx="3597986" cy="2390588"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>931213</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>52294</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="圖片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23CA775F-19E5-8048-67B6-91A359BDC2F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4392706" y="14515353"/>
+          <a:ext cx="3665448" cy="2435412"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="RND_stats_2022-04-01_to_2022-06"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="D2" t="str">
-            <v>偏度 Skewness</v>
-          </cell>
-          <cell r="H2" t="str">
-            <v>偏度 Skewness</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>44652</v>
-          </cell>
-          <cell r="D3">
-            <v>0.50290000000000001</v>
-          </cell>
-          <cell r="H3">
-            <v>0.4153</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>44653</v>
-          </cell>
-          <cell r="D4">
-            <v>0.42180000000000001</v>
-          </cell>
-          <cell r="H4">
-            <v>0.496</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>44654</v>
-          </cell>
-          <cell r="D5">
-            <v>0.45800000000000002</v>
-          </cell>
-          <cell r="H5">
-            <v>0.32700000000000001</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>44655</v>
-          </cell>
-          <cell r="D6">
-            <v>0.47889999999999999</v>
-          </cell>
-          <cell r="H6">
-            <v>0.39190000000000003</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>44656</v>
-          </cell>
-          <cell r="D7">
-            <v>0.39589999999999997</v>
-          </cell>
-          <cell r="H7">
-            <v>0.37740000000000001</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>44657</v>
-          </cell>
-          <cell r="D8">
-            <v>0.49669999999999997</v>
-          </cell>
-          <cell r="H8">
-            <v>0.3044</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>44658</v>
-          </cell>
-          <cell r="D9">
-            <v>0.49719999999999998</v>
-          </cell>
-          <cell r="H9">
-            <v>0.45529999999999998</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>44659</v>
-          </cell>
-          <cell r="D10">
-            <v>0.33989999999999998</v>
-          </cell>
-          <cell r="H10">
-            <v>0.39589999999999997</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>44660</v>
-          </cell>
-          <cell r="D11">
-            <v>0.4032</v>
-          </cell>
-          <cell r="H11">
-            <v>0.40289999999999998</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>44661</v>
-          </cell>
-          <cell r="D12">
-            <v>0.2923</v>
-          </cell>
-          <cell r="H12">
-            <v>0.2853</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>44662</v>
-          </cell>
-          <cell r="D13">
-            <v>0.32979999999999998</v>
-          </cell>
-          <cell r="H13">
-            <v>0.31819999999999998</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>44663</v>
-          </cell>
-          <cell r="D14">
-            <v>0.50349999999999995</v>
-          </cell>
-          <cell r="H14">
-            <v>0.46510000000000001</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>44664</v>
-          </cell>
-          <cell r="D15">
-            <v>0.3513</v>
-          </cell>
-          <cell r="H15">
-            <v>0.38159999999999999</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>44665</v>
-          </cell>
-          <cell r="D16">
-            <v>0.33510000000000001</v>
-          </cell>
-          <cell r="H16">
-            <v>0.36730000000000002</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>44666</v>
-          </cell>
-          <cell r="D17">
-            <v>0.36209999999999998</v>
-          </cell>
-          <cell r="H17">
-            <v>0.3604</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>44667</v>
-          </cell>
-          <cell r="D18">
-            <v>0.34560000000000002</v>
-          </cell>
-          <cell r="H18">
-            <v>0.2482</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>44668</v>
-          </cell>
-          <cell r="D19">
-            <v>0.20619999999999999</v>
-          </cell>
-          <cell r="H19">
-            <v>0.3014</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>44669</v>
-          </cell>
-          <cell r="D20">
-            <v>0.16009999999999999</v>
-          </cell>
-          <cell r="H20">
-            <v>0.18260000000000001</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>44670</v>
-          </cell>
-          <cell r="D21">
-            <v>0.15060000000000001</v>
-          </cell>
-          <cell r="H21">
-            <v>0.1736</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>44671</v>
-          </cell>
-          <cell r="D22">
-            <v>0.1835</v>
-          </cell>
-          <cell r="H22">
-            <v>0.21390000000000001</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>44672</v>
-          </cell>
-          <cell r="D23">
-            <v>6.7100000000000007E-2</v>
-          </cell>
-          <cell r="H23">
-            <v>0.1148</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>44673</v>
-          </cell>
-          <cell r="D24">
-            <v>0.15459999999999999</v>
-          </cell>
-          <cell r="H24">
-            <v>0.13519999999999999</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>44674</v>
-          </cell>
-          <cell r="D25">
-            <v>0.1205</v>
-          </cell>
-          <cell r="H25">
-            <v>0.1106</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>44675</v>
-          </cell>
-          <cell r="D26">
-            <v>0.19450000000000001</v>
-          </cell>
-          <cell r="H26">
-            <v>0.17749999999999999</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>44676</v>
-          </cell>
-          <cell r="D27">
-            <v>0.28570000000000001</v>
-          </cell>
-          <cell r="H27">
-            <v>0.34470000000000001</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>44677</v>
-          </cell>
-          <cell r="D28">
-            <v>0.17899999999999999</v>
-          </cell>
-          <cell r="H28">
-            <v>0.25650000000000001</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>44678</v>
-          </cell>
-          <cell r="D29">
-            <v>0.2019</v>
-          </cell>
-          <cell r="H29">
-            <v>0.21260000000000001</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>44679</v>
-          </cell>
-          <cell r="D30">
-            <v>0.12690000000000001</v>
-          </cell>
-          <cell r="H30">
-            <v>5.96E-2</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>44680</v>
-          </cell>
-          <cell r="D31">
-            <v>0.12870000000000001</v>
-          </cell>
-          <cell r="H31">
-            <v>0.16309999999999999</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>44681</v>
-          </cell>
-          <cell r="D32">
-            <v>-0.1323</v>
-          </cell>
-          <cell r="H32">
-            <v>2.6499999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>44682</v>
-          </cell>
-          <cell r="D33">
-            <v>0.2109</v>
-          </cell>
-          <cell r="H33">
-            <v>0.24590000000000001</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>44683</v>
-          </cell>
-          <cell r="D34">
-            <v>0.15479999999999999</v>
-          </cell>
-          <cell r="H34">
-            <v>0.1023</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>44684</v>
-          </cell>
-          <cell r="D35">
-            <v>9.3700000000000006E-2</v>
-          </cell>
-          <cell r="H35">
-            <v>8.1799999999999998E-2</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>44685</v>
-          </cell>
-          <cell r="D36">
-            <v>0.1105</v>
-          </cell>
-          <cell r="H36">
-            <v>0.1235</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>44686</v>
-          </cell>
-          <cell r="D37">
-            <v>0.2505</v>
-          </cell>
-          <cell r="H37">
-            <v>0.2838</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>44687</v>
-          </cell>
-          <cell r="D38">
-            <v>8.8700000000000001E-2</v>
-          </cell>
-          <cell r="H38">
-            <v>9.8900000000000002E-2</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>44688</v>
-          </cell>
-          <cell r="D39">
-            <v>0.17810000000000001</v>
-          </cell>
-          <cell r="H39">
-            <v>0.2137</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>44689</v>
-          </cell>
-          <cell r="D40">
-            <v>5.67E-2</v>
-          </cell>
-          <cell r="H40">
-            <v>4.36E-2</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>44690</v>
-          </cell>
-          <cell r="D41">
-            <v>9.9500000000000005E-2</v>
-          </cell>
-          <cell r="H41">
-            <v>0.1273</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>44691</v>
-          </cell>
-          <cell r="D42">
-            <v>0.17929999999999999</v>
-          </cell>
-          <cell r="H42">
-            <v>0.17780000000000001</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>44692</v>
-          </cell>
-          <cell r="D43">
-            <v>8.5000000000000006E-3</v>
-          </cell>
-          <cell r="H43">
-            <v>2.9700000000000001E-2</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>44693</v>
-          </cell>
-          <cell r="D44">
-            <v>5.0799999999999998E-2</v>
-          </cell>
-          <cell r="H44">
-            <v>8.1100000000000005E-2</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>44694</v>
-          </cell>
-          <cell r="D45">
-            <v>1.7899999999999999E-2</v>
-          </cell>
-          <cell r="H45">
-            <v>5.2999999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>44695</v>
-          </cell>
-          <cell r="D46">
-            <v>-0.17130000000000001</v>
-          </cell>
-          <cell r="H46">
-            <v>-0.13719999999999999</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>44696</v>
-          </cell>
-          <cell r="D47">
-            <v>-5.1299999999999998E-2</v>
-          </cell>
-          <cell r="H47">
-            <v>-4.53E-2</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>44697</v>
-          </cell>
-          <cell r="D48">
-            <v>-0.1326</v>
-          </cell>
-          <cell r="H48">
-            <v>-0.1143</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49">
-            <v>44698</v>
-          </cell>
-          <cell r="D49">
-            <v>-0.2266</v>
-          </cell>
-          <cell r="H49">
-            <v>-0.22789999999999999</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>44699</v>
-          </cell>
-          <cell r="D50">
-            <v>-0.2099</v>
-          </cell>
-          <cell r="H50">
-            <v>-7.0599999999999996E-2</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>44700</v>
-          </cell>
-          <cell r="D51">
-            <v>-0.28660000000000002</v>
-          </cell>
-          <cell r="H51">
-            <v>-0.29099999999999998</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52">
-            <v>44701</v>
-          </cell>
-          <cell r="D52">
-            <v>-0.1236</v>
-          </cell>
-          <cell r="H52">
-            <v>-0.12709999999999999</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53">
-            <v>44702</v>
-          </cell>
-          <cell r="D53">
-            <v>-0.25319999999999998</v>
-          </cell>
-          <cell r="H53">
-            <v>-0.2636</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54">
-            <v>44703</v>
-          </cell>
-          <cell r="D54">
-            <v>-0.1225</v>
-          </cell>
-          <cell r="H54">
-            <v>-0.13519999999999999</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55">
-            <v>44704</v>
-          </cell>
-          <cell r="D55">
-            <v>-0.36159999999999998</v>
-          </cell>
-          <cell r="H55">
-            <v>-0.24940000000000001</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56">
-            <v>44705</v>
-          </cell>
-          <cell r="D56">
-            <v>-4.1000000000000002E-2</v>
-          </cell>
-          <cell r="H56">
-            <v>-2.92E-2</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57">
-            <v>44706</v>
-          </cell>
-          <cell r="D57">
-            <v>-0.35720000000000002</v>
-          </cell>
-          <cell r="H57">
-            <v>-0.372</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58">
-            <v>44707</v>
-          </cell>
-          <cell r="D58">
-            <v>-0.15609999999999999</v>
-          </cell>
-          <cell r="H58">
-            <v>-0.2165</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59">
-            <v>44708</v>
-          </cell>
-          <cell r="D59">
-            <v>-0.26700000000000002</v>
-          </cell>
-          <cell r="H59">
-            <v>-0.31690000000000002</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60">
-            <v>44709</v>
-          </cell>
-          <cell r="D60">
-            <v>-0.2737</v>
-          </cell>
-          <cell r="H60">
-            <v>-0.31109999999999999</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61">
-            <v>44710</v>
-          </cell>
-          <cell r="D61">
-            <v>-0.34820000000000001</v>
-          </cell>
-          <cell r="H61">
-            <v>-0.41820000000000002</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62">
-            <v>44711</v>
-          </cell>
-          <cell r="D62">
-            <v>-8.3400000000000002E-2</v>
-          </cell>
-          <cell r="H62">
-            <v>-9.6799999999999997E-2</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63">
-            <v>44712</v>
-          </cell>
-          <cell r="D63">
-            <v>-0.1777</v>
-          </cell>
-          <cell r="H63">
-            <v>-0.23400000000000001</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64">
-            <v>44713</v>
-          </cell>
-          <cell r="D64">
-            <v>-0.1074</v>
-          </cell>
-          <cell r="H64">
-            <v>-0.1288</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65">
-            <v>44714</v>
-          </cell>
-          <cell r="D65">
-            <v>-0.2853</v>
-          </cell>
-          <cell r="H65">
-            <v>-0.26069999999999999</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66">
-            <v>44715</v>
-          </cell>
-          <cell r="D66">
-            <v>-0.40770000000000001</v>
-          </cell>
-          <cell r="H66">
-            <v>-0.47820000000000001</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67">
-            <v>44716</v>
-          </cell>
-          <cell r="D67">
-            <v>-0.29820000000000002</v>
-          </cell>
-          <cell r="H67">
-            <v>-0.34</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68">
-            <v>44717</v>
-          </cell>
-          <cell r="D68">
-            <v>-0.3609</v>
-          </cell>
-          <cell r="H68">
-            <v>-0.53010000000000002</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69">
-            <v>44718</v>
-          </cell>
-          <cell r="D69">
-            <v>-0.36209999999999998</v>
-          </cell>
-          <cell r="H69">
-            <v>-0.50749999999999995</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70">
-            <v>44719</v>
-          </cell>
-          <cell r="D70">
-            <v>-0.1484</v>
-          </cell>
-          <cell r="H70">
-            <v>-0.18099999999999999</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71">
-            <v>44720</v>
-          </cell>
-          <cell r="D71">
-            <v>-0.14130000000000001</v>
-          </cell>
-          <cell r="H71">
-            <v>-0.1827</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72">
-            <v>44721</v>
-          </cell>
-          <cell r="D72">
-            <v>-0.28100000000000003</v>
-          </cell>
-          <cell r="H72">
-            <v>-0.34970000000000001</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73">
-            <v>44722</v>
-          </cell>
-          <cell r="D73">
-            <v>-0.2059</v>
-          </cell>
-          <cell r="H73">
-            <v>-0.25319999999999998</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74">
-            <v>44723</v>
-          </cell>
-          <cell r="D74">
-            <v>-0.49349999999999999</v>
-          </cell>
-          <cell r="H74">
-            <v>-0.63990000000000002</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75">
-            <v>44724</v>
-          </cell>
-          <cell r="D75">
-            <v>-1.2381</v>
-          </cell>
-          <cell r="H75">
-            <v>-1.2347999999999999</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76">
-            <v>44725</v>
-          </cell>
-          <cell r="D76">
-            <v>0.28789999999999999</v>
-          </cell>
-          <cell r="H76">
-            <v>0.3533</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77">
-            <v>44726</v>
-          </cell>
-          <cell r="D77">
-            <v>-0.1754</v>
-          </cell>
-          <cell r="H77">
-            <v>-0.13320000000000001</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78">
-            <v>44727</v>
-          </cell>
-          <cell r="D78">
-            <v>-6.1699999999999998E-2</v>
-          </cell>
-          <cell r="H78">
-            <v>2.5700000000000001E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7819,7 +7056,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{507EB0C2-6B8B-49BF-A460-C141D59693C0}">
   <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
@@ -7948,7 +7187,7 @@
         <v>0.70679999999999998</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" ref="K4:L67" si="0">(H4-D4)/D4</f>
+        <f t="shared" ref="K4:L66" si="0">(H4-D4)/D4</f>
         <v>-0.26258897969944639</v>
       </c>
       <c r="L4" s="2">
